--- a/Documents/OMNIXIE_sheets.xlsx
+++ b/Documents/OMNIXIE_sheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21nic\OneDrive\Desktop\NIXIE\OMNIXIE\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F56D2B-60A6-4595-9E2B-E5431AAB154D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E65E5C-CFEB-4DBA-B820-9A9411822778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="224">
   <si>
     <t>A: ADC, A7 (ADC_IN7)</t>
   </si>
@@ -341,9 +341,6 @@
     <t>Categories</t>
   </si>
   <si>
-    <t>USB4105-GF-A</t>
-  </si>
-  <si>
     <t>Connections</t>
   </si>
   <si>
@@ -428,12 +425,6 @@
     <t>Pin &amp; Socket Connectors SOCKET CONTACT</t>
   </si>
   <si>
-    <t>Board to Board &amp; Mezzanine Connectors 16POS 0.8MM SMT</t>
-  </si>
-  <si>
-    <t>Board to Board &amp; Mezzanine Connectors 0.8 mm pitch, SMT, parallel/ vertical, 16 pos., Pin header</t>
-  </si>
-  <si>
     <t>Ferrite Cores &amp; Accessories WE-OEFA LFS Oval Ferrite Core Oval; 25Ohms; 72Ohms Black AEC-Q200</t>
   </si>
   <si>
@@ -443,9 +434,6 @@
     <t>Schottky Diodes &amp; Rectifiers 3A 200Vr 140Vrms 200V 80A 0.86Vf</t>
   </si>
   <si>
-    <t>Interface - I/O Expanders Interface IO Expander</t>
-  </si>
-  <si>
     <t>Pin &amp; Socket Connectors CRIMP SKT BULK 14-20</t>
   </si>
   <si>
@@ -525,6 +513,204 @@
   </si>
   <si>
     <t>USB just requires that D+ D- and DPU are on the same port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM21BR71A106MA73K </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multilayer Ceramic Capacitors MLCC - SMD/SMT 10 uF 10 VDC 20% 0805 X7R </t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0805C105K3RAC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multilayer Ceramic Capacitors MLCC - SMD/SMT 25V 1uF X7R 0805 10% </t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Murata-Electronics/GRM21BR71A106MA73K?qs=QzBtWTOodeUC8P7MOf3tUw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/KEMET/C0805C105K3RAC?qs=ycRbFa0SLRQpHhAu2LUs4g%3D%3D</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3, C4, C5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>0.22uF</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>R3,R5</t>
+  </si>
+  <si>
+    <t>4.42m</t>
+  </si>
+  <si>
+    <t>15k</t>
+  </si>
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
+    <t>R8,R9</t>
+  </si>
+  <si>
+    <t>R11,R12</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>R13,R14</t>
+  </si>
+  <si>
+    <t>5.1k</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>1.5k</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0402_1005Metric_Pad0.72x0.64mm_HandSolder</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_2010_5025Metric</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_1210_3225Metric</t>
+  </si>
+  <si>
+    <t>Capacitors/Resistors</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>J2, J3</t>
+  </si>
+  <si>
+    <t>TP6,TP8,TP10,TP11,TP12,TP13,TP14</t>
+  </si>
+  <si>
+    <t>Q0,Q1,Q2,Q3,Q4,Q5,Q6,Q7,Q8,Q9,Q10,Q11</t>
+  </si>
+  <si>
+    <t>Q12</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>J6,J7</t>
+  </si>
+  <si>
+    <t>1x2 2.54mm Pitch Pin Headers</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR0603-FX-5101ELF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thick Film Resistors - SMD 5.1K ohm 1% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0402FR-074M42L </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thick Film Resistors General Purpose Chip Resistor 0402, 4.42mOhms, 1%, 1/16W </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRCW04021K50JNEDC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thick Film Resistors - SMD 1/16watt 1.5Kohms 5% Commercial Use </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thick Film Resistors - SMD General Purpose Chip Resistor 2010, 15kOhms, 5%, 3/4W </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC2010JK-0715KL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC0805DR-071KL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thick Film Resistors - SMD Automotive Grade Chip Resistor 0805, 1kOhms, 0.5%, 1/8W </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0805DR-07100KL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thick Film Resistors - SMD General Purpose Chip Resistor 0805, 100kOhms, 0.5%, 1/8W </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thick Film Resistors - SMD WRIS-RSKS 47 Ohms 5 % 0.1 W 0402 AEC-Q200 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM43DR7LV224KW01L </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multilayer Ceramic Capacitors MLCC - SMD/SMT 0.22 uF 630 VDC 10% 1812 X7R </t>
+  </si>
+  <si>
+    <t>USB4120-03-C</t>
+  </si>
+  <si>
+    <t>0.8 mm pitch, SMT, parallel/ vertical, Board-to-board Connector, 16 pos., Socket receptacle</t>
+  </si>
+  <si>
+    <t>0.8 mm pitch, SMT, parallel/ vertical, Board-to-board Connector, 16 pos., Pin header</t>
+  </si>
+  <si>
+    <t>J8</t>
   </si>
 </sst>
 </file>
@@ -534,7 +720,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,8 +838,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -738,8 +932,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -978,19 +1184,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="medium">
@@ -1153,6 +1346,138 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1164,7 +1489,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1262,77 +1587,85 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1344,102 +1677,273 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1958,550 +2462,893 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C7034E-99F6-4C64-9A78-788C06E81851}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="90.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="90.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B1" s="40">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="41" t="s">
         <v>143</v>
-      </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
-        <v>147</v>
       </c>
       <c r="B2" s="40">
         <v>1</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="36"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="71"/>
       <c r="L2" s="36"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M2" s="36"/>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B3" s="40">
         <v>1</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="171" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="172">
+        <v>46009</v>
+      </c>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+    </row>
+    <row r="5" spans="1:18" s="145" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="181" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="182" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="182" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="182" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="182" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="182" t="s">
         <v>145</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="B4" s="43">
-        <v>46005</v>
-      </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="76" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="76" t="s">
+      <c r="G5" s="183" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="182" t="s">
+        <v>135</v>
+      </c>
+      <c r="I5" s="182" t="s">
+        <v>136</v>
+      </c>
+      <c r="J5" s="182" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="184" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="143"/>
+      <c r="M5" s="143"/>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="173" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="174">
+        <v>1</v>
+      </c>
+      <c r="C6" s="174" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="175" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="176" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" s="177"/>
+      <c r="G6" s="178" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="179"/>
+      <c r="I6" s="179"/>
+      <c r="J6" s="179"/>
+      <c r="K6" s="180"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="119"/>
+      <c r="B7" s="120">
+        <v>1</v>
+      </c>
+      <c r="C7" s="120" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="121" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="122" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="123"/>
+      <c r="G7" s="124" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="75"/>
+    </row>
+    <row r="8" spans="1:18" s="145" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="135"/>
+      <c r="B8" s="136">
+        <v>1</v>
+      </c>
+      <c r="C8" s="136" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="137" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" s="138" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" s="139"/>
+      <c r="G8" s="140" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="141"/>
+      <c r="I8" s="141"/>
+      <c r="J8" s="141"/>
+      <c r="K8" s="142"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="143"/>
+      <c r="N8" s="144"/>
+      <c r="O8" s="144"/>
+      <c r="P8" s="144"/>
+      <c r="Q8" s="144"/>
+      <c r="R8" s="144"/>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="127" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="128">
+        <v>1</v>
+      </c>
+      <c r="C9" s="186" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="129" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9" s="130" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9" s="131"/>
+      <c r="G9" s="132" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="134"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="75"/>
+      <c r="R9" s="75"/>
+    </row>
+    <row r="10" spans="1:18" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="106"/>
+      <c r="B10" s="77">
+        <v>2</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="78" t="s">
+        <v>202</v>
+      </c>
+      <c r="E10" s="79" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="G10" s="81" t="s">
+        <v>203</v>
+      </c>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="76"/>
+    </row>
+    <row r="11" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="108"/>
+      <c r="B11" s="77">
+        <v>1</v>
+      </c>
+      <c r="C11" s="77">
+        <v>5005</v>
+      </c>
+      <c r="D11" s="78" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11" s="79" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="80"/>
+      <c r="G11" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="76" t="s">
-        <v>149</v>
-      </c>
-      <c r="F5" s="77" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" s="76" t="s">
-        <v>139</v>
-      </c>
-      <c r="H5" s="76" t="s">
-        <v>140</v>
-      </c>
-      <c r="I5" s="76" t="s">
-        <v>141</v>
-      </c>
-      <c r="J5" s="78" t="s">
-        <v>142</v>
-      </c>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="79" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="80">
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="75"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="108"/>
+      <c r="B12" s="77">
+        <v>2</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="83" t="s">
+        <v>196</v>
+      </c>
+      <c r="E12" s="79" t="s">
+        <v>170</v>
+      </c>
+      <c r="F12" s="80"/>
+      <c r="G12" s="81" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="75"/>
+    </row>
+    <row r="13" spans="1:18" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="108"/>
+      <c r="B13" s="77">
         <v>1</v>
       </c>
-      <c r="C6" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="81"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="83" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="85"/>
-      <c r="B7" s="86">
+      <c r="C13" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="83" t="s">
+        <v>223</v>
+      </c>
+      <c r="E13" s="79" t="s">
+        <v>170</v>
+      </c>
+      <c r="F13" s="80"/>
+      <c r="G13" s="81" t="s">
+        <v>221</v>
+      </c>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="76"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="108"/>
+      <c r="B14" s="77">
         <v>1</v>
       </c>
-      <c r="C7" s="86" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="88" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="85"/>
-      <c r="B8" s="86">
+      <c r="C14" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="84" t="s">
+        <v>199</v>
+      </c>
+      <c r="E14" s="79" t="s">
+        <v>170</v>
+      </c>
+      <c r="F14" s="80"/>
+      <c r="G14" s="81" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="75"/>
+    </row>
+    <row r="15" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="108"/>
+      <c r="B15" s="77">
+        <v>12</v>
+      </c>
+      <c r="C15" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="E15" s="79" t="s">
+        <v>170</v>
+      </c>
+      <c r="F15" s="80"/>
+      <c r="G15" s="81" t="s">
+        <v>134</v>
+      </c>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="75"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="146"/>
+      <c r="B16" s="147">
         <v>1</v>
       </c>
-      <c r="C8" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="85"/>
-      <c r="B9" s="86">
+      <c r="C16" s="147" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="148" t="s">
+        <v>200</v>
+      </c>
+      <c r="E16" s="149" t="s">
+        <v>170</v>
+      </c>
+      <c r="F16" s="150"/>
+      <c r="G16" s="151" t="s">
+        <v>123</v>
+      </c>
+      <c r="H16" s="152"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="152"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="75"/>
+    </row>
+    <row r="17" spans="1:18" s="145" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="163"/>
+      <c r="B17" s="164">
         <v>1</v>
       </c>
-      <c r="C9" s="86" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="88" t="s">
-        <v>134</v>
-      </c>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="90" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="91">
+      <c r="C17" s="164" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="165" t="s">
+        <v>201</v>
+      </c>
+      <c r="E17" s="166" t="s">
+        <v>170</v>
+      </c>
+      <c r="F17" s="167"/>
+      <c r="G17" s="168" t="s">
+        <v>130</v>
+      </c>
+      <c r="H17" s="169"/>
+      <c r="I17" s="169"/>
+      <c r="J17" s="169"/>
+      <c r="K17" s="170"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="143"/>
+      <c r="N17" s="144"/>
+      <c r="O17" s="144"/>
+      <c r="P17" s="144"/>
+      <c r="Q17" s="144"/>
+      <c r="R17" s="144"/>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="154" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" s="155">
         <v>1</v>
       </c>
-      <c r="C10" s="91" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="92"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="94" t="s">
-        <v>104</v>
-      </c>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="96"/>
-      <c r="B11" s="97">
+      <c r="C18" s="155" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="156" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" s="157" t="s">
+        <v>171</v>
+      </c>
+      <c r="F18" s="158"/>
+      <c r="G18" s="159" t="s">
+        <v>159</v>
+      </c>
+      <c r="H18" s="160" t="s">
+        <v>189</v>
+      </c>
+      <c r="I18" s="161"/>
+      <c r="J18" s="161"/>
+      <c r="K18" s="162" t="s">
+        <v>163</v>
+      </c>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="75"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="109"/>
+      <c r="B19" s="86">
         <v>1</v>
       </c>
-      <c r="C11" s="97">
-        <v>5005</v>
-      </c>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="99" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="100"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="96"/>
-      <c r="B12" s="97">
+      <c r="C19" s="87" t="s">
+        <v>218</v>
+      </c>
+      <c r="D19" s="88" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F19" s="90"/>
+      <c r="G19" s="87" t="s">
+        <v>219</v>
+      </c>
+      <c r="H19" s="91" t="s">
+        <v>190</v>
+      </c>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="110" t="s">
+        <v>164</v>
+      </c>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="75"/>
+      <c r="Q19" s="75"/>
+      <c r="R19" s="75"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="109"/>
+      <c r="B20" s="86">
+        <v>1</v>
+      </c>
+      <c r="C20" s="86" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="88" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="F20" s="90"/>
+      <c r="G20" s="92" t="s">
+        <v>162</v>
+      </c>
+      <c r="H20" s="91" t="s">
+        <v>189</v>
+      </c>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="75"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="109"/>
+      <c r="B21" s="93">
         <v>2</v>
       </c>
-      <c r="C12" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="99" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="101"/>
-      <c r="B13" s="102">
+      <c r="C21" s="93" t="s">
+        <v>207</v>
+      </c>
+      <c r="D21" s="94" t="s">
+        <v>174</v>
+      </c>
+      <c r="E21" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="F21" s="95"/>
+      <c r="G21" s="96" t="s">
+        <v>208</v>
+      </c>
+      <c r="H21" s="97" t="s">
+        <v>185</v>
+      </c>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="75"/>
+      <c r="R21" s="75"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="109"/>
+      <c r="B22" s="93">
         <v>1</v>
       </c>
-      <c r="C13" s="102" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="104" t="s">
-        <v>129</v>
-      </c>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="101"/>
-      <c r="B14" s="102">
+      <c r="C22" s="86" t="s">
+        <v>212</v>
+      </c>
+      <c r="D22" s="94" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F22" s="90"/>
+      <c r="G22" s="92" t="s">
+        <v>211</v>
+      </c>
+      <c r="H22" s="97" t="s">
+        <v>186</v>
+      </c>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="75"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="109"/>
+      <c r="B23" s="93">
         <v>1</v>
       </c>
-      <c r="C14" s="102" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="104" t="s">
-        <v>130</v>
-      </c>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="105"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="96"/>
-      <c r="B15" s="97">
+      <c r="C23" s="86" t="s">
+        <v>215</v>
+      </c>
+      <c r="D23" s="94" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23" s="89" t="s">
+        <v>177</v>
+      </c>
+      <c r="F23" s="90"/>
+      <c r="G23" s="92" t="s">
+        <v>216</v>
+      </c>
+      <c r="H23" s="97" t="s">
+        <v>187</v>
+      </c>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="75"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="109"/>
+      <c r="B24" s="93">
+        <v>2</v>
+      </c>
+      <c r="C24" s="185">
+        <v>560112110017</v>
+      </c>
+      <c r="D24" s="94" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="89">
+        <v>47</v>
+      </c>
+      <c r="F24" s="95"/>
+      <c r="G24" s="96" t="s">
+        <v>217</v>
+      </c>
+      <c r="H24" s="97" t="s">
+        <v>185</v>
+      </c>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="75"/>
+      <c r="R24" s="75"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="109"/>
+      <c r="B25" s="93">
+        <v>2</v>
+      </c>
+      <c r="C25" s="93" t="s">
+        <v>213</v>
+      </c>
+      <c r="D25" s="94" t="s">
+        <v>179</v>
+      </c>
+      <c r="E25" s="89" t="s">
+        <v>180</v>
+      </c>
+      <c r="F25" s="95"/>
+      <c r="G25" s="96" t="s">
+        <v>214</v>
+      </c>
+      <c r="H25" s="97" t="s">
+        <v>187</v>
+      </c>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="75"/>
+      <c r="P25" s="75"/>
+      <c r="Q25" s="75"/>
+      <c r="R25" s="75"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="109"/>
+      <c r="B26" s="93">
+        <v>2</v>
+      </c>
+      <c r="C26" s="93" t="s">
+        <v>205</v>
+      </c>
+      <c r="D26" s="94" t="s">
+        <v>181</v>
+      </c>
+      <c r="E26" s="89" t="s">
+        <v>182</v>
+      </c>
+      <c r="F26" s="95"/>
+      <c r="G26" s="98" t="s">
+        <v>206</v>
+      </c>
+      <c r="H26" s="97" t="s">
+        <v>188</v>
+      </c>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="75"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="109"/>
+      <c r="B27" s="99">
         <v>1</v>
       </c>
-      <c r="C15" s="97" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="99" t="s">
-        <v>127</v>
-      </c>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="96"/>
-      <c r="B16" s="97">
-        <v>12</v>
-      </c>
-      <c r="C16" s="106" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="99" t="s">
-        <v>138</v>
-      </c>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="96"/>
-      <c r="B17" s="97">
-        <v>1</v>
-      </c>
-      <c r="C17" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="99" t="s">
-        <v>124</v>
-      </c>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="107"/>
-      <c r="B18" s="108">
-        <v>1</v>
-      </c>
-      <c r="C18" s="108" t="s">
-        <v>122</v>
-      </c>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="110" t="s">
-        <v>133</v>
-      </c>
-      <c r="G18" s="109"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
+      <c r="C27" s="99" t="s">
+        <v>209</v>
+      </c>
+      <c r="D27" s="101" t="s">
+        <v>183</v>
+      </c>
+      <c r="E27" s="102" t="s">
+        <v>184</v>
+      </c>
+      <c r="F27" s="95"/>
+      <c r="G27" s="100" t="s">
+        <v>210</v>
+      </c>
+      <c r="H27" s="103" t="s">
+        <v>185</v>
+      </c>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="110"/>
       <c r="L27" s="36"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
+      <c r="M27" s="36"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="109"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="110"/>
       <c r="L28" s="36"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
+      <c r="M28" s="36"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="109"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="110"/>
       <c r="L29" s="36"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
+      <c r="M29" s="36"/>
+    </row>
+    <row r="30" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="111"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="115"/>
+      <c r="K30" s="118"/>
       <c r="L30" s="36"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" s="36"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="33"/>
       <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
-      <c r="J31" s="36"/>
+      <c r="J31" s="33"/>
       <c r="K31" s="36"/>
       <c r="L31" s="36"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" s="36"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
@@ -2511,28 +3358,43 @@
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
       <c r="I32" s="33"/>
-      <c r="J32" s="36"/>
+      <c r="J32" s="33"/>
       <c r="K32" s="36"/>
       <c r="L32" s="36"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
+      <c r="M32" s="36"/>
+    </row>
+    <row r="33" spans="1:18" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="108"/>
+      <c r="B33" s="77">
+        <v>1</v>
+      </c>
+      <c r="C33" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="83"/>
+      <c r="E33" s="79" t="s">
+        <v>170</v>
+      </c>
+      <c r="F33" s="80"/>
+      <c r="G33" s="81" t="s">
+        <v>222</v>
+      </c>
+      <c r="H33" s="82"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="82"/>
+      <c r="K33" s="107"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="76"/>
+      <c r="P33" s="76"/>
+      <c r="Q33" s="76"/>
+      <c r="R33" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C3:J4"/>
-    <mergeCell ref="C1:J2"/>
+    <mergeCell ref="C3:K4"/>
+    <mergeCell ref="C1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2563,46 +3425,46 @@
       <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="73" t="s">
-        <v>153</v>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="59" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="54">
+      <c r="D3" s="52">
         <v>1</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="68"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="54"/>
     </row>
     <row r="4" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="25" t="s">
@@ -2627,8 +3489,8 @@
         <v>25</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="69"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="55"/>
     </row>
     <row r="5" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="22" t="s">
@@ -2655,8 +3517,8 @@
       <c r="J5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="45"/>
-      <c r="L5" s="69"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="55"/>
     </row>
     <row r="6" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
@@ -2673,8 +3535,8 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="69"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="55"/>
     </row>
     <row r="7" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
@@ -2699,8 +3561,8 @@
         <v>36</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="69"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="55"/>
     </row>
     <row r="8" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
@@ -2717,8 +3579,8 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="69"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="55"/>
     </row>
     <row r="9" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
@@ -2743,8 +3605,8 @@
         <v>40</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="69"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="55"/>
     </row>
     <row r="10" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
@@ -2771,10 +3633,10 @@
       <c r="J10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="46" t="s">
+      <c r="K10" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="69"/>
+      <c r="L10" s="55"/>
     </row>
     <row r="11" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B11" s="15" t="s">
@@ -2801,10 +3663,10 @@
       <c r="J11" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="45" t="s">
+      <c r="K11" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="L11" s="69"/>
+      <c r="L11" s="55"/>
     </row>
     <row r="12" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B12" s="15" t="s">
@@ -2827,8 +3689,8 @@
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="69"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="55"/>
     </row>
     <row r="13" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="15" t="s">
@@ -2853,8 +3715,8 @@
         <v>58</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="69"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="55"/>
     </row>
     <row r="14" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
@@ -2881,10 +3743,10 @@
       <c r="J14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="47" t="s">
+      <c r="K14" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="69"/>
+      <c r="L14" s="55"/>
     </row>
     <row r="15" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
@@ -2909,8 +3771,8 @@
         <v>35</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="69"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="55"/>
     </row>
     <row r="16" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D16" s="7">
@@ -2932,8 +3794,8 @@
         <v>47</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="69"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="55"/>
     </row>
     <row r="17" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D17" s="7">
@@ -2957,8 +3819,8 @@
       <c r="J17" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="K17" s="45"/>
-      <c r="L17" s="69"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="55"/>
     </row>
     <row r="18" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D18" s="7">
@@ -2980,8 +3842,8 @@
         <v>29</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="69"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="55"/>
     </row>
     <row r="19" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D19" s="7">
@@ -3005,9 +3867,9 @@
       <c r="J19" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="K19" s="45"/>
-      <c r="L19" s="72" t="s">
-        <v>154</v>
+      <c r="K19" s="43"/>
+      <c r="L19" s="58" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
@@ -3032,9 +3894,9 @@
       <c r="J20" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K20" s="45"/>
-      <c r="L20" s="72" t="s">
-        <v>155</v>
+      <c r="K20" s="43"/>
+      <c r="L20" s="58" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
@@ -3057,9 +3919,9 @@
         <v>44</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="72" t="s">
-        <v>156</v>
+      <c r="K21" s="43"/>
+      <c r="L21" s="58" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="4:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3082,32 +3944,32 @@
         <v>36</v>
       </c>
       <c r="J22" s="2"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="70"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="56"/>
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="E27" s="71" t="s">
-        <v>158</v>
+      <c r="E27" s="57" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="4:12" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="4:12" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3249,12 +4111,12 @@
         <v>12</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
       <c r="F3" s="35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -3267,17 +4129,17 @@
       <c r="D4" s="33"/>
       <c r="E4" s="33"/>
       <c r="F4" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C5" s="37" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="38">
         <v>3825</v>
@@ -3288,17 +4150,17 @@
         <v>10</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
       <c r="G8" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="4:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D19" s="44" t="s">
-        <v>150</v>
+      <c r="D19" s="42" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="4:8" x14ac:dyDescent="0.25">
@@ -3306,12 +4168,12 @@
         <v>1</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
       <c r="H20" s="35" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="4:8" x14ac:dyDescent="0.25">
@@ -3324,7 +4186,7 @@
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
       <c r="H21" s="35" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="4:8" x14ac:dyDescent="0.25">
@@ -3332,20 +4194,20 @@
         <v>2</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
       <c r="H22" s="35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E23" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="4:8" x14ac:dyDescent="0.25">
@@ -3353,12 +4215,12 @@
         <v>12</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="33"/>
       <c r="H25" s="35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="4:8" x14ac:dyDescent="0.25">
@@ -3366,12 +4228,12 @@
         <v>12</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F26" s="33"/>
       <c r="G26" s="33"/>
       <c r="H26" s="35" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
